--- a/report_data/comb_AW_t.xlsx
+++ b/report_data/comb_AW_t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AB6506-E574-40BA-8835-194A21DC46A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD080E48-00B4-4458-8005-BAFCF5A92842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="98">
   <si>
     <t>SPY_R</t>
   </si>
@@ -298,9 +298,6 @@
     <t>return comb</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -317,6 +314,12 @@
   </si>
   <si>
     <t>RE</t>
+  </si>
+  <si>
+    <t>US_IR</t>
+  </si>
+  <si>
+    <t>CA_IR</t>
   </si>
 </sst>
 </file>
@@ -2824,7 +2827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
@@ -7369,18 +7372,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC337E2-4E70-47B9-A180-11A7BE53091C}">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="28" max="28" width="8.83984375" style="7"/>
+    <col min="29" max="29" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -7403,7 +7406,7 @@
         <v>82</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -7421,7 +7424,7 @@
         <v>81</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -7433,40 +7436,43 @@
         <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -7509,26 +7515,26 @@
       <c r="Q2">
         <v>2.0932862417590852E-3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>-2.3821364964893288E-3</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6.4934186100833458E-3</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1.7384100660211571E-4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>-4.9733217368577174E-3</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2.4082777875944931E-2</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.79657</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -7571,29 +7577,29 @@
       <c r="Q3">
         <v>-6.4409341366988837E-3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.3330087272984752E-3</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.2903301313787139E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7.0849119291398477E-3</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2.2074560896092391E-2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>9.4688552933637204E-3</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.76698900000000003</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AC3" s="7">
         <v>2.6483934951696136E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7636,29 +7642,29 @@
       <c r="Q4">
         <v>2.2165493919210629E-2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.1472028622800291E-2</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7.5637200391052151E-3</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.8987722207076011E-2</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.290716763202874E-2</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5.919871068841509E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.77313799999999999</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AC4" s="7">
         <v>1.3200993610928245E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -7701,29 +7707,29 @@
       <c r="Q5">
         <v>2.2875047761268248E-3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>7.343399327304434E-3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.6647106330960781E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>8.1583347786684524E-3</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4.5909702180633838E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1.9069842697907902E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.76558000000000004</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AC5" s="7">
         <v>2.368349226000948E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7766,29 +7772,29 @@
       <c r="Q6">
         <v>-2.981511613207255E-3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-1.0857508374162439E-3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>8.235299105893823E-3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6.8989534009267217E-4</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-3.3489368796200243E-2</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-4.8553259387812853E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.76413500000000001</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AC6" s="7">
         <v>-5.0364282107569925E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -7831,29 +7837,29 @@
       <c r="Q7">
         <v>7.85254751666975E-3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.9783065087055629E-3</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6.2231649320410032E-3</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1.293216427249444E-3</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-2.3019576261185889E-2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-6.4762926655513864E-3</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.76029999999999998</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AC7" s="7">
         <v>4.3514320738558552E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -7896,29 +7902,29 @@
       <c r="Q8">
         <v>-1.8122505003128619E-3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-1.164541635436445E-2</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-7.7308064083438932E-3</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-9.8209729862666073E-3</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-4.153662782054135E-2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-2.37379844740323E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.74615699999999996</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
         <v>-3.7090111378549782E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -7961,29 +7967,29 @@
       <c r="Q9">
         <v>-2.071482078586839E-2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-2.3018612776886101E-2</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-1.9088387351335782E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-2.0609262203597382E-2</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-2.335578051349552E-2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-8.4734034427526028E-3</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>0.74453499999999995</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AC9" s="7">
         <v>-1.0620757694388937E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -8026,29 +8032,29 @@
       <c r="Q10">
         <v>-2.556170851764072E-3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-7.6098744125844284E-3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-2.7799800860561111E-2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-4.7724004754958749E-3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2.7922258419992959E-2</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3.6253798786447737E-2</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.74399000000000004</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>6.572811577199157E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -8091,29 +8097,29 @@
       <c r="Q11">
         <v>1.1099180797225831E-2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-3.9702216728316753E-3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-1.369977968285596E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-1.568037216177931E-3</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1.5344059647800719E-2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-1.6119034135675389E-5</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.76322500000000004</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AC11" s="7">
         <v>-5.3811481559543021E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -8156,29 +8162,29 @@
       <c r="Q12">
         <v>4.1163283991447752E-3</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9.9447678928255012E-3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3.7593435453124879E-3</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>9.6829494720747089E-3</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4.3743806239007421E-2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3.37133929178004E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>0.758328</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AC12" s="7">
         <v>1.9366833398417674E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -8221,29 +8227,29 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.4253402562409718E-3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.9131139031071118E-3</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2.5781634276356158E-3</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-2.3877691933215432E-2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3.3504126958809892E-3</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.75004700000000002</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AC13" s="7">
         <v>7.3510809088803818E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -8286,29 +8292,29 @@
       <c r="Q14">
         <v>3.1400398012180202E-3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.35605877538445E-2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.6182391485326519E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.443649271222203E-2</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.5235923415663381E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.3794900596070249E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>0.73282999999999998</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>2.2167000569620454E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -8351,29 +8357,29 @@
       <c r="Q15">
         <v>-1.5193100822987751E-3</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9.7101716711414099E-3</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.5108254916978311E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9.1892519226546288E-3</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1.1405333798052419E-3</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-6.2543741348854986E-3</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.74237900000000001</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AC15" s="7">
         <v>5.6724946660530087E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -8416,29 +8422,29 @@
       <c r="Q16">
         <v>-8.4515870900856438E-3</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-1.5238821604939499E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-3.7007146222135752E-2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1.258408083428131E-2</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.1796022226349789E-2</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-9.9264359376159961E-3</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.76966900000000005</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AC16" s="7">
         <v>-2.7832566523623647E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -8481,29 +8487,29 @@
       <c r="Q17">
         <v>4.2870230367133546E-3</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-1.968609289652723E-2</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-1.5736452899592471E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-1.7767801308187559E-2</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2.0155623556242789E-2</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-1.385757731095094E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.80247800000000002</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AC17" s="7">
         <v>-1.6308908933315762E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -8546,29 +8552,29 @@
       <c r="Q18">
         <v>1.1048899730556011E-2</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.4690467898059939E-2</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.7566422506639201E-2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.3495162088168261E-2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>6.6948458004911782E-3</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1.451282087170425E-2</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.79192899999999999</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AC18" s="7">
         <v>1.683570024810023E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -8611,29 +8617,29 @@
       <c r="Q19">
         <v>-7.1778954621328772E-3</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-1.379575558237778E-2</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-1.642100482167819E-2</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-1.4353983231543349E-2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-1.625613223020983E-2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>8.1781860328256073E-6</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.80610999999999999</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AC19" s="7">
         <v>-1.0735848180043629E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -8676,29 +8682,29 @@
       <c r="Q20">
         <v>4.0131214343988031E-3</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1.618913864017291E-2</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.0119887025904729E-2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1.557899042359101E-2</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>9.0494025236806941E-3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2.080072604630678E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.77976999999999996</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AC20" s="7">
         <v>3.2078818964258946E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -8741,29 +8747,29 @@
       <c r="Q21">
         <v>-6.320954609078111E-4</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>7.60037727657914E-3</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1.552653823886452E-2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>9.2405641063963984E-3</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2.5650644752978291E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2.1718620150976701E-2</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.77748399999999995</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AC21" s="7">
         <v>1.173448121220075E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -8806,29 +8812,29 @@
       <c r="Q22">
         <v>5.4443127970720262E-3</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-4.4879559637528432E-3</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-6.1980872727844796E-3</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-3.3713168819927701E-3</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-1.1711527852426349E-2</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1.340302297075668E-2</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.79554499999999995</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AC22" s="7">
         <v>-9.6253188788950374E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -8871,29 +8877,29 @@
       <c r="Q23">
         <v>-2.7363366546472312E-3</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-1.012137993386353E-2</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-5.8548609299746701E-4</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-8.9069267479587877E-3</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-1.996065254715362E-2</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>6.6286566272433234E-4</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.81062900000000004</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AC23" s="7">
         <v>-2.2198212872510158E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -8936,29 +8942,29 @@
       <c r="Q24">
         <v>-1.0520833363616981E-2</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8.9759230346153629E-5</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>6.7168622500588526E-3</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>4.5108570635266082E-4</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-6.6573203122750613E-2</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-9.8393070958983087E-3</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.78301799999999999</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AC24" s="7">
         <v>-3.525504802454719E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -9001,29 +9007,29 @@
       <c r="Q25">
         <v>1.028401410837421E-2</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.2437879157385151E-2</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.042538398425541E-2</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>6.0427682736103883E-3</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2.9183035134081381E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2.131845324432757E-2</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.77465300000000004</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AC25" s="7">
         <v>1.1561933427701943E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -9066,29 +9072,29 @@
       <c r="Q26">
         <v>-3.8922356609315529E-3</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-1.247870345265545E-2</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-6.6033699623614384E-3</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-6.4057648411462997E-3</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.0565133980271261E-2</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-6.9866106142091322E-4</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.77882799999999996</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AC26" s="7">
         <v>-2.8142569211239881E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -9131,29 +9137,29 @@
       <c r="Q27">
         <v>1.4325008950393241E-3</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>8.2109735369830794E-3</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.1188062179168021E-2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>8.0415107249720563E-3</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3.3712401804804497E-2</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3.123877014354726E-2</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.77560899999999999</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AC27" s="7">
         <v>1.6670371578284576E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -9196,29 +9202,29 @@
       <c r="Q28">
         <v>7.9333003939245916E-3</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>6.2896491423201084E-3</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-4.0681178099000181E-3</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6.4122180367567339E-3</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3.056649281078205E-2</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1.5067618337413441E-2</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.75442100000000001</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AC28" s="7">
         <v>1.7745551069217328E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -9261,29 +9267,29 @@
       <c r="Q29">
         <v>-6.1565608529388083E-3</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-8.788298782219206E-3</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-7.5384412487101704E-3</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-8.3671634373767567E-3</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.812627270006861E-2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.2562787879080609E-2</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.76757699999999995</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AC29" s="7">
         <v>1.602256407607793E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -9326,29 +9332,29 @@
       <c r="Q30">
         <v>6.0769734938861397E-3</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>7.7193038786946833E-3</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>9.1362204984386519E-3</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>8.6597329230044817E-3</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2.3753783535674922E-2</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2.424882367847947E-2</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.77006600000000003</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AC30" s="7">
         <v>7.8812315659970503E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -9391,29 +9397,29 @@
       <c r="Q31">
         <v>-8.9675049534007067E-3</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-1.071120879323373E-2</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-1.2757286164054801E-2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-1.0720725660379959E-2</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-3.7989725331271873E-2</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-5.1685165739047134E-3</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.77429300000000001</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AC31" s="7">
         <v>-1.2260637632059382E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -9456,29 +9462,29 @@
       <c r="Q32">
         <v>-1.269096394668412E-2</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-7.0335737875275584E-3</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-2.042509194531628E-2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-7.1859929142761292E-3</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-1.427441715612854E-2</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-1.6166429721997558E-2</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.762544</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AC32" s="7">
         <v>-1.9353190999455983E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -9521,29 +9527,29 @@
       <c r="Q33">
         <v>4.8681163472636957E-3</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1.3209839200877481E-2</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-8.936132154600207E-3</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1.0855254609287711E-2</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>4.6985098495925033E-2</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2.0369917899411231E-2</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.75329599999999997</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AC33" s="7">
         <v>1.9117525396109471E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -9586,29 +9592,29 @@
       <c r="Q34">
         <v>3.0351607603966708E-3</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1.498557638393572E-2</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>3.0055688789016881E-3</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.144852899018778E-2</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-8.363916941285221E-2</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-3.6173964549621518E-2</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.73410699999999995</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AC34" s="7">
         <v>-1.472274226462429E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -9651,29 +9657,29 @@
       <c r="Q35">
         <v>1.7399731164462699E-2</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.007633106256622E-2</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.460668958780032E-2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.496645032262656E-2</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.12134741571669801</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>7.5307315498480909E-2</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.76097700000000001</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AC35" s="7">
         <v>3.1492857078027819E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -9716,29 +9722,29 @@
       <c r="Q36">
         <v>-1.710770821363838E-3</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.0651188198095301E-3</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>-4.2194127519371571E-3</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>3.3966907473732539E-3</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>7.3019561700249369E-3</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>3.7511152543585169E-2</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.76074600000000003</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AC36" s="7">
         <v>1.1094355473790295E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9781,29 +9787,29 @@
       <c r="Q37">
         <v>1.975129760533623E-2</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.44387346863113E-2</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>4.3643988236185871E-2</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>2.159775133963349E-2</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3.4343333460852499E-2</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3.6825295148416481E-2</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.74923200000000001</v>
       </c>
-      <c r="AB37" s="7">
+      <c r="AC37" s="7">
         <v>3.3007778418905863E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -9846,29 +9852,29 @@
       <c r="Q38">
         <v>2.2108959375053421E-3</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>-3.0678028030577402E-3</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2.0302047246387729E-3</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-5.2228217598482285E-4</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>6.6581483876426706E-3</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>-3.3408842685693441E-2</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.74323499999999998</v>
       </c>
-      <c r="AB38" s="7">
+      <c r="AC38" s="7">
         <v>9.6820826316651228E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -9911,29 +9917,29 @@
       <c r="Q39">
         <v>1.72078780850069E-2</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>1.8978109702928899E-2</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1.7017714501692979E-2</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.774146009434063E-2</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-1.494130103000701E-3</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>1.6023381782286791E-2</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.73937699999999995</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AC39" s="7">
         <v>3.3738756810519667E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -9976,29 +9982,29 @@
       <c r="Q40">
         <v>2.2182190241086812E-3</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>6.9295881046986807E-3</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>7.1713674461546528E-3</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>9.3175071808393461E-3</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>5.0650982819882007E-3</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>7.419690731507167E-4</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>0.76369100000000001</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AC40" s="7">
         <v>-3.4698434771929993E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -10041,29 +10047,29 @@
       <c r="Q41">
         <v>3.397681856538215E-3</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>1.0283483235487001E-3</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>9.3945354955378146E-3</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>4.3341671175523011E-4</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3.1693002122753722E-2</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>1.5230396586896511E-2</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>0.76059500000000002</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AC41" s="7">
         <v>1.1298758083615064E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -10106,29 +10112,29 @@
       <c r="Q42">
         <v>2.635167879568967E-2</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2.3075011010214249E-2</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1.502574597422535E-2</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>2.0507428444862311E-2</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3.4343838753991607E-2</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>4.110754795775784E-2</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>0.75295500000000004</v>
       </c>
-      <c r="AB42" s="7">
+      <c r="AC42" s="7">
         <v>2.3456767514302024E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -10171,29 +10177,29 @@
       <c r="Q43">
         <v>-9.238399934324848E-3</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>-1.2247032326407E-2</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>-1.246601293126148E-2</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-8.8112737541774511E-3</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>1.168088887437824E-2</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>2.5870862305202639E-2</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>0.75936499999999996</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AC43" s="7">
         <v>-7.7241903221758525E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -10236,29 +10242,29 @@
       <c r="Q44">
         <v>-1.477207904549638E-3</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>-1.7040261147647231E-3</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>-6.3116118665342844E-3</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-1.750387566711864E-3</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>1.488832440792631E-2</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>-3.7980859572367409E-3</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>0.75956699999999999</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AC44" s="7">
         <v>3.5569480157174407E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -10301,29 +10307,29 @@
       <c r="Q45">
         <v>4.4502190284256837E-3</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>3.2365682992099298E-3</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>4.763756838101374E-3</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>5.1399752442160551E-3</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-1.124562185867428E-2</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>1.774130275786279E-2</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>0.75349999999999995</v>
       </c>
-      <c r="AB45" s="7">
+      <c r="AC45" s="7">
         <v>1.1399521688991526E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -10366,29 +10372,29 @@
       <c r="Q46">
         <v>1.8051248019286259E-3</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>-1.2452295698901489E-2</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>-3.8350492147824163E-2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-1.0793668625358689E-2</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-1.2872670031676141E-3</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>-3.1205285996915411E-2</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>0.76566199999999995</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AC46" s="7">
         <v>-1.5287610933361754E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -10431,29 +10437,29 @@
       <c r="Q47">
         <v>2.3230950103815259E-2</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2.915425794866677E-2</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>5.5214974625109381E-2</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.6658948554743711E-2</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>2.6041475182488009E-2</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>5.3142993686709827E-2</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>0.75692800000000005</v>
       </c>
-      <c r="AB47" s="7">
+      <c r="AC47" s="7">
         <v>3.3044207704249311E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -10496,29 +10502,29 @@
       <c r="Q48">
         <v>8.1471887112321006E-3</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>7.1739502212007089E-3</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>1.200156978021205E-2</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>5.3115515440818051E-3</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-7.5816833970068886E-2</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>-3.4979312906888597E-2</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>0.748587</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AC48" s="7">
         <v>-1.5478003285692534E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -10561,29 +10567,29 @@
       <c r="Q49">
         <v>-1.6529840279188909E-2</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>-5.6333495676290646E-3</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>-7.6893618368228611E-2</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-3.3476441969651383E-2</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.20400460135358389</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>-0.27243011520480998</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>0.70528299999999999</v>
       </c>
-      <c r="AB49" s="7">
+      <c r="AC49" s="7">
         <v>-6.099697808669368E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -10626,29 +10632,29 @@
       <c r="Q50">
         <v>2.8748193393690839E-2</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>3.246359117891684E-2</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>5.1802699191028312E-2</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>5.2749760596186857E-2</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.103691076539941</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>6.1883420381680487E-2</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>0.72075699999999998</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AC50" s="7">
         <v>3.756563192031756E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -10691,29 +10697,29 @@
       <c r="Q51">
         <v>5.5402492700908912E-3</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>1.3872411836153291E-3</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>1.3002455882543231E-2</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>3.7225579516144691E-3</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>1.801451517234565E-2</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>-2.2028051153845318E-2</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>0.72728899999999996</v>
       </c>
-      <c r="AB51" s="7">
+      <c r="AC51" s="7">
         <v>5.8889655929367669E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -10756,29 +10762,29 @@
       <c r="Q52">
         <v>1.2338991627046211E-2</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>1.342541688957222E-2</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>1.6336005057379092E-2</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1.7953222730363368E-2</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>1.7954115151823439E-2</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>3.026701760885642E-2</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>0.73224699999999998</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AC52" s="7">
         <v>1.240668750352741E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -10821,29 +10827,29 @@
       <c r="Q53">
         <v>2.325207050837164E-2</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>1.157437495855174E-2</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>5.7262567963717537E-2</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>1.439019694701282E-2</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>4.8155141344948138E-2</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>1.25945756383099E-2</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>0.745556</v>
       </c>
-      <c r="AB53" s="7">
+      <c r="AC53" s="7">
         <v>1.8799125143842833E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -10886,29 +10892,29 @@
       <c r="Q54">
         <v>8.898729317886156E-3</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>-1.553738708351449E-2</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>-8.0291095824197578E-3</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-1.411822665998419E-2</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>2.3153311019579181E-3</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>-1.8740647596581669E-2</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>0.76450799999999997</v>
       </c>
-      <c r="AB54" s="7">
+      <c r="AC54" s="7">
         <v>-9.1424871802449504E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -10951,29 +10957,29 @@
       <c r="Q55">
         <v>-3.7801118268702139E-3</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>4.7443550540637869E-3</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>1.4715833032881149E-3</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>3.9094198585867268E-3</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>-2.9300981740285729E-2</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>-8.4304463922802997E-3</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>0.74717199999999995</v>
       </c>
-      <c r="AB55" s="7">
+      <c r="AC55" s="7">
         <v>3.3335670816165559E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -11016,29 +11022,29 @@
       <c r="Q56">
         <v>-1.003956846793796E-2</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>-8.0862658747119509E-3</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>-5.1432917180229687E-3</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-8.6608273897822441E-3</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-2.3295501610580801E-2</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>-2.354934881912563E-2</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>0.75101600000000002</v>
       </c>
-      <c r="AB56" s="7">
+      <c r="AC56" s="7">
         <v>-1.7179244815290876E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -11081,29 +11087,29 @@
       <c r="Q57">
         <v>1.284129902646192E-2</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>6.8982417877596616E-3</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>1.7356006783909361E-2</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>1.178265694588965E-2</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>8.5795402659779807E-2</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>0.17261248717653929</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>0.770262</v>
       </c>
-      <c r="AB57" s="7">
+      <c r="AC57" s="7">
         <v>3.4068409548986031E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -11146,29 +11152,29 @@
       <c r="Q58">
         <v>1.2300032009192609E-2</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>2.14952776418742E-3</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>-8.3382973131018723E-3</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>5.0978610676541969E-3</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>1.7704353535604959E-2</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>-2.3584629397021221E-2</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>0.78427100000000005</v>
       </c>
-      <c r="AB58" s="7">
+      <c r="AC58" s="7">
         <v>-2.5520450429905922E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -11211,29 +11217,29 @@
       <c r="Q59">
         <v>3.9012138633518489E-3</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>-1.287248308703859E-2</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>-1.3501726682175421E-2</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-1.313792909627132E-2</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>2.8509906791642781E-3</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>3.2182359340895421E-3</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>0.78271800000000002</v>
       </c>
-      <c r="AB59" s="7">
+      <c r="AC59" s="7">
         <v>-1.9765839326244742E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -11276,29 +11282,29 @@
       <c r="Q60">
         <v>-1.6876356799309659E-2</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>-3.1402599700392608E-2</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>-4.2798719056877273E-2</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-2.7332473568186359E-2</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>2.427300087212059E-2</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>3.874902314802342E-2</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>0.78500899999999996</v>
       </c>
-      <c r="AB60" s="7">
+      <c r="AC60" s="7">
         <v>-6.9603381153819487E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -11341,29 +11347,29 @@
       <c r="Q61">
         <v>-2.6225148958809448E-3</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>-1.446960508557182E-2</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>-8.5536365108086487E-3</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-1.2857934466383839E-2</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>5.254724983750747E-2</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>4.7734939106011121E-2</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>0.79234300000000002</v>
       </c>
-      <c r="AB61" s="7">
+      <c r="AC61" s="7">
         <v>6.3826781408798192E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -11406,29 +11412,29 @@
       <c r="Q62">
         <v>1.187250042846255E-2</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>1.321419504794807E-3</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>-2.0000001506330412E-2</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>2.7656113615037731E-4</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>8.4178939206976944E-2</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>4.6759242780944447E-2</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>0.81458399999999997</v>
       </c>
-      <c r="AB62" s="7">
+      <c r="AC62" s="7">
         <v>6.3850684645000832E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -11471,29 +11477,29 @@
       <c r="Q63">
         <v>8.5530271406155656E-3</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>5.6315402044018192E-3</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>3.4413810345154783E-2</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>6.0018057657740256E-3</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>1.008165525417448E-2</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>2.6318473936550069E-2</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>0.82796499999999995</v>
       </c>
-      <c r="AB63" s="7">
+      <c r="AC63" s="7">
         <v>5.3754151493342209E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -11536,25 +11542,25 @@
       <c r="Q64">
         <v>5.9579684772073094E-3</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>1.201443889131548E-2</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>9.6712093439765834E-3</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>1.0712640135823509E-2</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>1.7466802414469958E-2</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>3.3768751814758018E-2</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>0.80669900000000005</v>
       </c>
-      <c r="AB64" s="7">
+      <c r="AC64" s="7">
         <v>2.5072978494680643E-2</v>
       </c>
     </row>
